--- a/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
@@ -526,7 +526,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-23.80440323365662</v>
+        <v>-23.93123450653556</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.87930472871716</v>
+        <v>17.33542359632123</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.859432546112014</v>
+        <v>5.005858337703098</v>
       </c>
     </row>
     <row r="7">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2472063125070267</v>
+        <v>-0.2476232194315169</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2030686769528268</v>
+        <v>0.2097129949570799</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05289465702230684</v>
+        <v>0.05475907335983646</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.655879776601543</v>
+        <v>-2.86263636922738</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.535828818474636</v>
+        <v>-5.724010452436559</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.37820523515393</v>
+        <v>9.978785094275281</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.990469370806455</v>
+        <v>8.153445892566758</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0269373787035952</v>
+        <v>-0.02894387039077922</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06765429942452461</v>
+        <v>-0.05850740144700354</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1176541164296243</v>
+        <v>0.1108813671388713</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.08700438615146903</v>
+        <v>0.08841960850519535</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.169308559428358</v>
+        <v>-2.174102175158178</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.117106057120575</v>
+        <v>2.115050898608871</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.19908894205729</v>
+        <v>14.93416098447517</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.04896124349257</v>
+        <v>17.36498533951308</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02117784259665743</v>
+        <v>-0.02135001272041465</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02162882905166745</v>
+        <v>0.02160748264793098</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1765265031055784</v>
+        <v>0.181132646032202</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2055288998397839</v>
+        <v>0.2101403960153117</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.483413184037127</v>
+        <v>3.621121552892169</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.004797128377555042</v>
+        <v>0.1297908469808409</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.26453664810943</v>
+        <v>21.36663433313562</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.01242333565849</v>
+        <v>19.91416675871515</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0378755481591587</v>
+        <v>0.04048267534955686</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0005296131073062005</v>
+        <v>0.007090054688536771</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2613094859744696</v>
+        <v>0.2843740597790952</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2592543577043906</v>
+        <v>0.2636997096002421</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.030035867110544</v>
+        <v>2.789137202985916</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.18392637953252</v>
+        <v>-0.8047290529406609</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.41912633442246</v>
+        <v>11.2566271078905</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.875416893746745</v>
+        <v>9.501640312600527</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.03203091363943743</v>
+        <v>0.02969446995021246</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.01224515540507144</v>
+        <v>-0.007485365068241677</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1317199189379091</v>
+        <v>0.1292091098865709</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1010066260154654</v>
+        <v>0.108149825823928</v>
       </c>
     </row>
     <row r="34">
